--- a/Test Data - 25.01.2026.xlsx
+++ b/Test Data - 25.01.2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Github\Data-Analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3530E41-D499-400B-8EFA-4D76FF18C500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB8C6EB-F69F-464B-963E-DE926223EB39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{FC16F1F9-51EA-4971-8453-8D2010AD72C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="10" xr2:uid="{FC16F1F9-51EA-4971-8453-8D2010AD72C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,9 @@
     <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
     <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
     <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet11" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet12" sheetId="12" r:id="rId12"/>
+    <sheet name="Sheet13" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="70">
   <si>
     <t>Roll No</t>
   </si>
@@ -179,6 +182,81 @@
   </si>
   <si>
     <t>Kavita</t>
+  </si>
+  <si>
+    <t>Product Code</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Product Number</t>
+  </si>
+  <si>
+    <t>Country Code</t>
+  </si>
+  <si>
+    <t>ELEC-1023-US</t>
+  </si>
+  <si>
+    <t>FASH-2045-UK</t>
+  </si>
+  <si>
+    <t>TOYS-3098-IN</t>
+  </si>
+  <si>
+    <t>FOOD-4512-AU</t>
+  </si>
+  <si>
+    <t>HOME-5679-US</t>
+  </si>
+  <si>
+    <t>Clean Name</t>
+  </si>
+  <si>
+    <t>Upper Case</t>
+  </si>
+  <si>
+    <t>Proper Case</t>
+  </si>
+  <si>
+    <t>john DOE</t>
+  </si>
+  <si>
+    <t>mary jane</t>
+  </si>
+  <si>
+    <t>robert smith</t>
+  </si>
+  <si>
+    <t>lisa Ann</t>
+  </si>
+  <si>
+    <t>david BROWN</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Domain Name</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>https://www.google.com</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in</t>
+  </si>
+  <si>
+    <t>http://www.example.org</t>
+  </si>
+  <si>
+    <t>https://www.wikipedia.org</t>
+  </si>
+  <si>
+    <t>http://www.company.co.uk</t>
   </si>
 </sst>
 </file>
@@ -320,6 +398,153 @@
         <a:xfrm>
           <a:off x="7315200" y="571500"/>
           <a:ext cx="6506483" cy="4267796"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>410415</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114963</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A9BBAF4-E91B-1864-4FDF-F4F5C6CEDA71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8220075" y="504825"/>
+          <a:ext cx="6020640" cy="4753638"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>96117</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>172139</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13FDA949-4A54-B163-E364-2EF3FD95FBAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7905750" y="1143000"/>
+          <a:ext cx="6211167" cy="4934639"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>353495</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>105401</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDF46A97-B241-6ED8-910D-583361BCCEBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7924800" y="952500"/>
+          <a:ext cx="7668695" cy="4486901"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1133,8 +1358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85DD87C-C2DB-442D-AC7E-5A2CBA78A542}">
   <dimension ref="A4:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1222,6 +1447,306 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F233CFF2-D480-4A3E-8D75-F30D61933CD2}">
+  <dimension ref="A3:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="str">
+        <f>+LEFT(A4,FIND("-",A4)-1)</f>
+        <v>ELEC</v>
+      </c>
+      <c r="C4" t="str">
+        <f>+MID(A4,6,4)</f>
+        <v>1023</v>
+      </c>
+      <c r="D4" t="str">
+        <f>+RIGHT(A4,2)</f>
+        <v>US</v>
+      </c>
+      <c r="E4" t="str">
+        <f>+RIGHT(A4,FIND("-",A4)-3)</f>
+        <v>US</v>
+      </c>
+      <c r="F4" t="str">
+        <f>LEFT(A4,FIND("-",A4))</f>
+        <v>ELEC-</v>
+      </c>
+      <c r="G4" t="str">
+        <f>RIGHT(A4,FIND("-",A4))</f>
+        <v>23-US</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" ref="B5:B8" si="0">+LEFT(A5,FIND("-",A5)-1)</f>
+        <v>FASH</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" ref="D5:D8" si="1">+RIGHT(A5,2)</f>
+        <v>UK</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>TOYS</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="1"/>
+        <v>IN</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>FOOD</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="1"/>
+        <v>AU</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>HOME</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="1"/>
+        <v>US</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF3EFD77-8DCD-4BD5-B972-3DC18B5E8E2D}">
+  <dimension ref="A3:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" t="str">
+        <f>+TRIM(A4)</f>
+        <v>john DOE</v>
+      </c>
+      <c r="C4" t="str">
+        <f>+UPPER(B4)</f>
+        <v>JOHN DOE</v>
+      </c>
+      <c r="D4" t="str">
+        <f>+PROPER(B4)</f>
+        <v>John Doe</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" ref="B5:B8" si="0">+TRIM(A5)</f>
+        <v>mary jane</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" ref="C5:C8" si="1">+UPPER(B5)</f>
+        <v>MARY JANE</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" ref="D5:D8" si="2">+PROPER(B5)</f>
+        <v>Mary Jane</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>robert smith</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="1"/>
+        <v>ROBERT SMITH</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="2"/>
+        <v>Robert Smith</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>lisa Ann</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="1"/>
+        <v>LISA ANN</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="2"/>
+        <v>Lisa Ann</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>david BROWN</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="1"/>
+        <v>DAVID BROWN</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="2"/>
+        <v>David Brown</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430F7097-3132-4340-8B3D-AA720B43A29A}">
+  <dimension ref="A4:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A5" r:id="rId1" display="https://www.google.com/" xr:uid="{9421F184-6D8C-451A-A06C-738BCB7646F3}"/>
+    <hyperlink ref="A6" r:id="rId2" display="https://www.amazon.in/" xr:uid="{4EEA43CC-2BAB-443B-A2CF-7F190893871D}"/>
+    <hyperlink ref="A7" r:id="rId3" display="http://www.example.org/" xr:uid="{E8C4E400-BE63-4B24-B0C5-0BF137F7DEBA}"/>
+    <hyperlink ref="A8" r:id="rId4" display="https://www.wikipedia.org/" xr:uid="{1C8D4481-2944-4F69-8491-43954DE95EA6}"/>
+    <hyperlink ref="A9" r:id="rId5" display="http://www.company.co.uk/" xr:uid="{1093DEFB-66A1-4473-BB67-B0932A59DB7E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -1590,10 +2115,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{602A281C-6431-408D-BCB3-59DACBAD87C3}">
-  <dimension ref="A6:D10"/>
+  <dimension ref="A6:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1604,7 +2129,7 @@
     <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1618,7 +2143,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -1632,8 +2157,12 @@
         <f>+IF(OR(B7&gt;=10000,C7="Yes"),"Discount","No Discount")</f>
         <v>No Discount</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F7" t="b">
+        <f>+OR(B7&gt;=10000,C7="YES")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1647,8 +2176,12 @@
         <f t="shared" ref="D8:D10" si="0">+IF(OR(B8&gt;=10000,C8="Yes"),"Discount","No Discount")</f>
         <v>Discount</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F8" t="b">
+        <f>+OR(B8&gt;=10000,C8="YES")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1663,7 +2196,7 @@
         <v>Discount</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
